--- a/data/income_statement/3digits/total/433_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/433_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>433-Building completion and finishing</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>433-Building completion and finishing</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>2890465.54464</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>3197214.70035</v>
+        <v>3197850.42806</v>
       </c>
       <c r="E5" s="47" t="n">
         <v>4441207.523800001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>4909723.40454</v>
+        <v>4918188.104590001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>5574430.594589999</v>
+        <v>5595032.47195</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>6476726.957260001</v>
+        <v>6559400.36348</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>6998681.949209999</v>
+        <v>7271240.09721</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>8148541.92192</v>
+        <v>8149431.428679999</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>9381083.002369998</v>
+        <v>9381083.002370002</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>12070457.6539</v>
+        <v>12150342.6888</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>11413700.26695</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11712781.27842</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>10897058.322</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>2692223.09046</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>2955431.1062</v>
+        <v>2956066.83391</v>
       </c>
       <c r="E6" s="48" t="n">
         <v>4119084.84528</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>4646933.935700001</v>
+        <v>4655231.25776</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>5238559.259059999</v>
+        <v>5258860.48057</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>6100793.6803</v>
+        <v>6181873.89807</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>6674506.27903</v>
+        <v>6924966.61957</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>7805690.517049999</v>
+        <v>7806577.17381</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>8951150.665659999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>11414054.3516</v>
+        <v>11493457.21573</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>10483052.06247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>10776085.92853</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>9851191.098999999</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>150168.95389</v>
@@ -1040,13 +956,13 @@
         <v>192917.95035</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>256006.23997</v>
+        <v>256152.16324</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>280844.13126</v>
+        <v>282246.38026</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>233462.32919</v>
+        <v>253875.65031</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>244584.12461</v>
@@ -1055,55 +971,65 @@
         <v>283813.56871</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>462090.54892</v>
+        <v>462489.47736</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>770800.52616</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>775383.2694399999</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>880767.2610000001</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>48073.50028999999</v>
+        <v>48073.50029</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>49733.44067</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>92111.90892</v>
+        <v>92111.90892000002</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>69871.51849000002</v>
+        <v>70038.89648</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>79865.09556</v>
+        <v>80019.82814</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>95089.14570000001</v>
+        <v>95280.08515</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>90713.34099000001</v>
+        <v>92397.82733</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>98267.28026</v>
+        <v>98270.13026000001</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>146118.768</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>194312.75338</v>
+        <v>194395.99571</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>159847.67832</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>161312.08045</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>165099.962</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>21202.21956</v>
@@ -1115,16 +1041,16 @@
         <v>27921.69655</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>33294.01086</v>
+        <v>33294.8575</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>38097.64611</v>
+        <v>38125.48838</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>37113.73209</v>
+        <v>37128.79004</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>31187.59364</v>
+        <v>33905.17946</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>80567.2455</v>
@@ -1133,16 +1059,21 @@
         <v>75371.0517</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>209937.33124</v>
+        <v>210391.29795</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>89075.42640000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>89807.77922999999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>128921.466</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>10847.51668</v>
@@ -1157,13 +1088,13 @@
         <v>21175.06505</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>24635.4411</v>
+        <v>24662.70745</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>22249.98981</v>
+        <v>22257.43521</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>22911.17503</v>
+        <v>25337.84037</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>60472.51422</v>
@@ -1172,16 +1103,21 @@
         <v>59779.51544</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>187536.64846</v>
+        <v>187988.44379</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>73067.63731999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>73713.19997</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>100551.072</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>4917.67559</v>
@@ -1193,16 +1129,16 @@
         <v>6839.051769999999</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>11148.62682</v>
+        <v>11149.47346</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>7818.038610000001</v>
+        <v>7818.54709</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>8718.040449999999</v>
+        <v>8725.653</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>6308.101529999999</v>
+        <v>6597.64436</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>4730.36425</v>
@@ -1211,16 +1147,21 @@
         <v>4434.01481</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>7055.737260000001</v>
+        <v>7057.90864</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>6711.14185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>6713.437779999999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>8585.690000000001</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>5437.02729</v>
@@ -1235,13 +1176,13 @@
         <v>970.31899</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>5644.1664</v>
+        <v>5644.23384</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>6145.70183</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1968.31708</v>
+        <v>1969.69473</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>15364.36703</v>
@@ -1253,133 +1194,153 @@
         <v>15344.94552</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>9296.64723</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>9381.14148</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>19784.704</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>2869263.32508</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>3180798.67179</v>
+        <v>3181434.3995</v>
       </c>
       <c r="E13" s="47" t="n">
         <v>4413285.82725</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>4876429.393680001</v>
+        <v>4884893.24709</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>5536332.948480001</v>
+        <v>5556906.98357</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>6439613.22517</v>
+        <v>6522271.573439999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>6967494.35557</v>
+        <v>7237334.917750001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>8067974.67642</v>
+        <v>8068864.183180001</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>9305711.950670002</v>
+        <v>9305711.95067</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>11860520.32266</v>
+        <v>11939951.39085</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>11324624.84055</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>11622973.49919</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>10768136.856</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>2409204.6869</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>2657425.46261</v>
+        <v>2657930.43651</v>
       </c>
       <c r="E14" s="47" t="n">
         <v>3763124.32787</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>4162280.01107</v>
+        <v>4169094.43966</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>4752191.50454</v>
+        <v>4767362.4084</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>5553706.13083</v>
+        <v>5625191.473379999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>6087518.685149999</v>
+        <v>6318579.942220001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>6984039.47998</v>
+        <v>6985065.01499</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>8086843.68644</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>10386213.90763</v>
+        <v>10459481.6143</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>9819629.150369998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>10074177.91893</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>9265759.869999999</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>526381.51367</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>540503.8756</v>
+        <v>540503.8755999999</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>729499.23278</v>
+        <v>729499.2327800001</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>848574.89078</v>
+        <v>849590.9781800001</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>948280.2318399999</v>
+        <v>948588.2601600001</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1033622.3004</v>
+        <v>1035755.61615</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1174801.14569</v>
+        <v>1224570.24693</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1379341.79621</v>
+        <v>1379330.26971</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>1833755.48174</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>2171705.4748</v>
+        <v>2179338.10644</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>2420136.98121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2464728.3472</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>2428429.576</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>838595.74943</v>
+        <v>838595.7494300001</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>899180.88713</v>
@@ -1388,79 +1349,89 @@
         <v>1304472.07002</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1385393.7731</v>
+        <v>1390142.1511</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1573036.18697</v>
+        <v>1584732.46349</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1782897.22489</v>
+        <v>1794228.67927</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2183598.87968</v>
+        <v>2233872.11219</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>2480978.02816</v>
+        <v>2481572.20568</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>2856703.5371</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3639945.08513</v>
+        <v>3691218.54367</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3021769.45153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3146349.67933</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>3857140.948</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1032757.65088</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1209569.15919</v>
+        <v>1210074.13309</v>
       </c>
       <c r="E17" s="48" t="n">
         <v>1706856.71257</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1917768.72138</v>
+        <v>1918818.68457</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2212874.7215</v>
+        <v>2216041.32052</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2724206.40062</v>
+        <v>2782226.97304</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>2715375.56385</v>
+        <v>2843499.43595</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>3102772.94091</v>
+        <v>3103211.94701</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>3371653.14008</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>4541860.72662</v>
+        <v>4556217.343110001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>4334551.18587</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>4420313.97566</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2913723.348</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>11469.77292</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>8171.540690000001</v>
+        <v>8171.54069</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>22296.3125</v>
@@ -1475,103 +1446,118 @@
         <v>12980.20492</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>13743.09593</v>
+        <v>16638.14715</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>20946.7147</v>
+        <v>20950.59259</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>24731.52752</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>32702.62108</v>
+        <v>32707.62108</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>43171.53176000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>42785.91673999999</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>66465.99800000001</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>460058.63818</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>523373.2091800001</v>
+        <v>523503.96299</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>650161.4993800001</v>
+        <v>650161.4993800002</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>714149.38261</v>
+        <v>715798.80743</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>784141.4439399999</v>
+        <v>789544.5751700001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>885907.0943400001</v>
+        <v>897080.10006</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>879975.6704200001</v>
+        <v>918754.9755299999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1083935.19644</v>
+        <v>1083799.16819</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1218868.26423</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1474306.41503</v>
+        <v>1480469.77655</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1504995.69018</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1548795.58026</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1502376.986</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>345648.46424</v>
+        <v>345648.4642399999</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>377435.9043700001</v>
+        <v>377562.61343</v>
       </c>
       <c r="E20" s="47" t="n">
         <v>457778.76217</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>497759.5428800001</v>
+        <v>499589.9129699999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>554036.07961</v>
+        <v>557509.22013</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>603050.4300800001</v>
+        <v>612108.7071</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>662647.65763</v>
+        <v>688717.3381999999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>761935.3142900001</v>
+        <v>761902.1882999999</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>847205.0017799999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>985016.4463099999</v>
+        <v>989848.0917</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1026366.18286</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1058118.34906</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>919569.539</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1852.81397</v>
@@ -1592,7 +1578,7 @@
         <v>246.41094</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>1250.64782</v>
+        <v>1252.12645</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>506.51863</v>
@@ -1604,13 +1590,18 @@
         <v>494.7024</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>3874.95569</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>3674.95569</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>9000.870999999999</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>61502.3713</v>
@@ -1622,151 +1613,171 @@
         <v>67437.02919</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>74420.46661</v>
+        <v>74488.24968000001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>89525.69212000001</v>
+        <v>89634.89061999999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>91809.99054000001</v>
+        <v>92620.32307</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>108495.86477</v>
+        <v>112788.89903</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>117153.82594</v>
+        <v>117157.61266</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>146632.34872</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>168828.4691</v>
+        <v>169351.20708</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>179356.3641</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>184555.42514</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>176919.577</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>282293.27897</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>318575.45788</v>
+        <v>318702.16694</v>
       </c>
       <c r="E23" s="48" t="n">
         <v>389729.22068</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>422426.45379</v>
+        <v>424189.04081</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>464082.38042</v>
+        <v>467446.32244</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>510994.0286</v>
+        <v>519241.97309</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>552901.14504</v>
+        <v>574676.31272</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>644274.9697200001</v>
+        <v>644238.05701</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>700031.9977000001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>815693.27481</v>
+        <v>820002.1822200001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>843134.86307</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>869887.96823</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>733649.091</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>114410.17394</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>145937.30481</v>
+        <v>145941.34956</v>
       </c>
       <c r="E24" s="47" t="n">
         <v>192382.73721</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>216389.83973</v>
+        <v>216208.89446</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>230105.36433</v>
+        <v>232035.35504</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>282856.66426</v>
+        <v>284971.39296</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>217328.01279</v>
+        <v>230037.63733</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>321999.88215</v>
+        <v>321896.97989</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>371663.26245</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>489289.9687199999</v>
+        <v>490621.68485</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>478629.5073199999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>490677.2312</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>582807.447</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>79114.28400999999</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>47992.67468</v>
+        <v>47993.26419</v>
       </c>
       <c r="E25" s="47" t="n">
         <v>55265.06615000001</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>55759.85098</v>
+        <v>55778.8907</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>77360.81115000001</v>
+        <v>77613.59935999999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>77950.01716</v>
+        <v>78401.53555</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>131073.59557</v>
+        <v>140334.72581</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>111299.60045</v>
+        <v>111302.21412</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>119168.94747</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>359232.86571</v>
+        <v>359465.48015</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>428127.67535</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>430788.1798</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>571512.0870000001</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>13781.31345</v>
@@ -1784,7 +1795,7 @@
         <v>7488.88708</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>7731.79391</v>
+        <v>7760.18691</v>
       </c>
       <c r="I26" s="48" t="n">
         <v>6652.166490000001</v>
@@ -1799,13 +1810,18 @@
         <v>1529.15991</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>1512.84883</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>1648.02401</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>224.971</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>557.57962</v>
@@ -1840,17 +1856,22 @@
       <c r="M27" s="48" t="n">
         <v>109047.67974</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>186.548</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>9498.976239999998</v>
+        <v>9498.97624</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>6772.339069999999</v>
+        <v>6772.72662</v>
       </c>
       <c r="E28" s="48" t="n">
         <v>8767.290580000001</v>
@@ -1859,31 +1880,36 @@
         <v>12973.34289</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>11976.09985</v>
+        <v>11976.4205</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>16404.78193</v>
+        <v>16427.69538</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>19275.10696</v>
+        <v>20265.29005</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>29715.0213</v>
+        <v>29715.82172</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>33501.44958</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>54669.53678</v>
+        <v>54669.54567</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>51163.54949</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>52839.18009</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>25301.196</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>607.4354599999999</v>
@@ -1907,25 +1933,30 @@
         <v>415.94921</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>741.6753299999999</v>
+        <v>741.67533</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>809.2974399999999</v>
+        <v>809.2974400000001</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>1795.58499</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1125.75299</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>1127.78424</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>145.265</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>401.5057</v>
+        <v>401.5056999999999</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>1415.98967</v>
@@ -1946,7 +1977,7 @@
         <v>2881.97899</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>992.0626900000001</v>
+        <v>992.06269</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>1294.26466</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>1820.28562</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>4920.848</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>2444.58061</v>
@@ -1973,7 +2009,7 @@
         <v>2673.00531</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>570.69422</v>
+        <v>570.70947</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>1240.48742</v>
@@ -1982,7 +2018,7 @@
         <v>881.15858</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>5534.67722</v>
+        <v>5540.940479999999</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>8654.773519999999</v>
@@ -1994,34 +2030,39 @@
         <v>1582.97413</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>3552.51322</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>3559.46912</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>6248.526</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>25908.8028</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>23096.93523</v>
+        <v>23097.13719</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>24149.03292</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>18500.82447</v>
+        <v>18500.82644</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>35620.37275</v>
+        <v>35872.62342</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>32481.88916</v>
+        <v>32744.58276</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>75907.27988999999</v>
+        <v>82586.99409000001</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>55523.51922</v>
@@ -2030,16 +2071,21 @@
         <v>58035.55083</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>269501.04058</v>
+        <v>269676.02874</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>234933.4633</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>235075.78747</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>515006.369</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>245.07034</v>
@@ -2057,10 +2103,10 @@
         <v>4213.4121</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>2136.85305</v>
+        <v>2233.84493</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>983.8852200000001</v>
+        <v>983.88522</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>338.9496</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>215.44762</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>16.677</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>73.92736000000001</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>26.93891</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>204.088</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>25595.09243</v>
@@ -2129,73 +2185,83 @@
         <v>17261.8942</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>20499.25412</v>
+        <v>20518.27662</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>12599.23188</v>
+        <v>12599.44877</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>14877.42963</v>
+        <v>14917.95609</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>19328.6491</v>
+        <v>20913.61879</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>13767.72964</v>
+        <v>13769.54289</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>21452.31444</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>27505.92268</v>
+        <v>27563.54007</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>24729.19563</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>25427.58298</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>19257.599</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>44036.52167</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>32040.80128</v>
+        <v>32040.91033</v>
       </c>
       <c r="E36" s="47" t="n">
         <v>42516.79008</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>31760.94011</v>
+        <v>31763.21621</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>61992.88187</v>
+        <v>62019.3707</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>43794.44275</v>
+        <v>44028.03872</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>95360.82904</v>
+        <v>100634.49475</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>88420.12390000001</v>
+        <v>88489.08355</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>84543.38668000001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>270323.63533</v>
+        <v>270892.5505</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>263293.0954</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>267380.84619</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>559562.466</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>700.54401</v>
@@ -2210,13 +2276,13 @@
         <v>608.8152299999999</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>3065.05625</v>
+        <v>3090.86985</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>491.7765900000001</v>
+        <v>491.77659</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1135.66255</v>
+        <v>1136.02951</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>6647.92692</v>
@@ -2225,19 +2291,24 @@
         <v>3946.69695</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>8836.08892</v>
+        <v>8836.13092</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1498.24008</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1498.71283</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1476.502</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>3773.19178</v>
+        <v>3773.191779999999</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>3926.8079</v>
@@ -2249,7 +2320,7 @@
         <v>11831.85758</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>7865.49905</v>
+        <v>7865.499049999999</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>4620.28854</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>30136.71728</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>23010.952</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>210.03112</v>
@@ -2285,7 +2361,7 @@
         <v>1336.96336</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>148.64161</v>
+        <v>148.65537</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>1612.08425</v>
@@ -2294,7 +2370,7 @@
         <v>124.73075</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>8998.531700000001</v>
+        <v>8998.5317</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>12147.18098</v>
@@ -2308,32 +2384,37 @@
       <c r="M39" s="48" t="n">
         <v>217.42606</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>220.335</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>25930.66515</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>21910.68079</v>
+        <v>21910.78984</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>29914.89707</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>13144.19607</v>
+        <v>13144.21891</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>37843.92393</v>
+        <v>37844.59916</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>31653.23705</v>
+        <v>31772.21974</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>61981.55351000001</v>
+        <v>67016.55834</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>48193.80467999999</v>
@@ -2342,16 +2423,21 @@
         <v>59202.31666</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>223241.41306</v>
+        <v>223810.28615</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>221377.25369</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>221702.93785</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>517016.539</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>50.69702</v>
@@ -2369,7 +2455,7 @@
         <v>3553.05814</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>1877.47082</v>
+        <v>1948.19006</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>708.56387</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>502.37555</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>40.479</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.8647</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>13370.52789</v>
@@ -2441,112 +2537,127 @@
         <v>4532.05808</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>4547.10503</v>
+        <v>4549.344529999999</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>8053.04785</v>
+        <v>8053.047850000001</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>5015.56384</v>
+        <v>5059.457880000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>4768.06325</v>
+        <v>5006.35717</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>4130.61094</v>
+        <v>4199.57059</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>5391.26988</v>
+        <v>5391.269880000001</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>14824.55894</v>
+        <v>14824.55902</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>9561.08274</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>13322.67662</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>17797.659</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>45240.9518</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>40570.87463000001</v>
+        <v>40573.78181</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>55932.00804</v>
+        <v>55932.00804000001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>74955.70041</v>
+        <v>75076.13103999999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>70188.81457</v>
+        <v>70669.41011</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>77004.34647</v>
+        <v>78390.05573000001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>91813.77640999999</v>
+        <v>94675.12137000001</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>118142.36002</v>
+        <v>118147.17688</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>152106.32133</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>231829.91821</v>
+        <v>232133.06185</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>228079.20657</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>233558.71755</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>174818.143</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>42767.98335</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>38504.34187999999</v>
+        <v>38507.24906000001</v>
       </c>
       <c r="E45" s="48" t="n">
         <v>49340.47968</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>72694.85231999999</v>
+        <v>72815.28295000002</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>68802.05619</v>
+        <v>69282.65173</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>74687.37999</v>
+        <v>76073.08925000002</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>89068.45775</v>
+        <v>91920.35416</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>113404.39325</v>
+        <v>113409.21011</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>148234.16999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>222822.21911</v>
+        <v>223125.36275</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>223219.96008</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>228557.6715</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>170849.223</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>2472.96845</v>
@@ -2555,7 +2666,7 @@
         <v>2066.53275</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>6591.52836</v>
+        <v>6591.528359999999</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>2260.84809</v>
@@ -2567,112 +2678,127 @@
         <v>2316.96648</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>2745.31866</v>
+        <v>2754.76721</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>4737.96677</v>
+        <v>4737.966770000001</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>3872.15134</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>9007.699100000002</v>
+        <v>9007.6991</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>4859.24649</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>5001.046050000001</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>3968.92</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>104246.98448</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>121318.30358</v>
+        <v>121319.92161</v>
       </c>
       <c r="E47" s="47" t="n">
         <v>149199.00524</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>165433.05019</v>
+        <v>165148.43791</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>175284.47904</v>
+        <v>176960.17359</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>240007.8922</v>
+        <v>240954.83406</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>161227.00291</v>
+        <v>175062.74702</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>226736.99868</v>
+        <v>226562.93358</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>254182.50191</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>346369.28089</v>
+        <v>347061.55265</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>415384.8807</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>420525.84726</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>419938.925</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>13031.28445</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>20055.43764</v>
+        <v>20055.46225</v>
       </c>
       <c r="E48" s="47" t="n">
         <v>19117.90285</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>32872.47185</v>
+        <v>32872.58754</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>21824.38647</v>
+        <v>21854.28101</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>27790.98175</v>
+        <v>27996.73978</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>40117.13947</v>
+        <v>42375.46479999999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>55984.63579</v>
+        <v>56045.60887</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>175948.57442</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>85975.65767</v>
+        <v>86047.76508</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>78906.37445</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>79620.48226</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>102259.338</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>573.19408</v>
+        <v>573.1940800000001</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>710.10132</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>622.525</v>
+        <v>622.5250000000001</v>
       </c>
       <c r="F49" s="48" t="n">
         <v>1802.61975</v>
@@ -2684,7 +2810,7 @@
         <v>2174.93207</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>2286.54769</v>
+        <v>2322.23769</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>2883.18474</v>
@@ -2693,94 +2819,109 @@
         <v>1417.21492</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>1321.44501</v>
+        <v>1329.93259</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>722.79196</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>1027.23</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>12458.09037</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>19345.33632</v>
+        <v>19345.36093</v>
       </c>
       <c r="E50" s="48" t="n">
         <v>18495.37785</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>31069.8521</v>
+        <v>31069.96779</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>19927.27042</v>
+        <v>19957.16496</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>25616.04968</v>
+        <v>25821.80771</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>37830.59178</v>
+        <v>40053.22710999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>53101.45105</v>
+        <v>53162.42412999999</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>174531.3595</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>84654.21265999999</v>
+        <v>84717.83249000002</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>78183.58249000002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>78897.6903</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>101232.108</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>17870.09194</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>21469.22757</v>
+        <v>21471.24803</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>235811.11834</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>29379.12971</v>
+        <v>29381.89511</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>27714.02999</v>
+        <v>27735.63339</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>85657.97405000002</v>
+        <v>86179.57084</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>41299.30282</v>
+        <v>43404.27415999999</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>116801.0038</v>
+        <v>116896.77785</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>56415.11275</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>194166.20605</v>
+        <v>194306.91513</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>64231.84214</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>64833.87905</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>65736.058</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>241.99203</v>
@@ -2789,7 +2930,7 @@
         <v>729.99215</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>846.3383999999999</v>
+        <v>846.3384</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>727.67393</v>
@@ -2807,7 +2948,7 @@
         <v>479.05031</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>369.1336700000001</v>
+        <v>369.13367</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>347.98103</v>
@@ -2815,17 +2956,22 @@
       <c r="M52" s="48" t="n">
         <v>484.06878</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>265.895</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>2024.89252</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>3746.90007</v>
+        <v>3748.9143</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>5337.85061</v>
@@ -2837,181 +2983,204 @@
         <v>3639.58705</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2405.26456</v>
+        <v>2531.35779</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>4161.82275</v>
+        <v>4399.027939999999</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>5659.084559999999</v>
+        <v>5660.0396</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>3303.58059</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>3311.32136</v>
+        <v>3312.06043</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>2584.05037</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>2587.59053</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>2720.794</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>15603.20739</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>16992.33535</v>
+        <v>16992.34158</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>229626.92933</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>26360.19992</v>
+        <v>26362.96532</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>23183.75617</v>
+        <v>23205.35957</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>82660.56963</v>
+        <v>83056.07319000001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>36128.75317</v>
+        <v>37996.51932</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>110662.86893</v>
+        <v>110757.68794</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>52742.39848999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>190506.90366</v>
+        <v>190646.87367</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>61163.72299000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>61762.21974</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>62749.369</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>99408.17698999999</v>
+        <v>99408.17699000001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>119904.51365</v>
+        <v>119904.13583</v>
       </c>
       <c r="E55" s="47" t="n">
         <v>-67494.21025</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>168926.39233</v>
+        <v>168639.13034</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>169394.83552</v>
+        <v>171078.82121</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>182140.8999</v>
+        <v>182772.003</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>160044.83956</v>
+        <v>174033.93766</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>165920.63067</v>
+        <v>165711.7646</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>373715.96358</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>238178.73251</v>
+        <v>238802.4026</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>430059.4130100001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>435312.45047</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>456462.205</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>22668.55318</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>24246.43105</v>
+        <v>24252.36285</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>32021.17319999999</v>
+        <v>32021.1732</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>39273.43870000001</v>
+        <v>39284.47286</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>40727.61879000001</v>
+        <v>40766.66497</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>52607.49514</v>
+        <v>53127.95031</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>44949.10877</v>
+        <v>46524.00653999999</v>
       </c>
       <c r="J56" s="47" t="n">
         <v>58609.49325</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>63243.36288</v>
+        <v>63243.36287999999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>102952.31791</v>
+        <v>103237.33046</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>87030.79624</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>89209.61253</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>110171.988</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>76739.62381</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>95658.08259999999</v>
+        <v>95651.77298000001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-99515.38344999999</v>
+        <v>-99515.38345000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>129652.95363</v>
+        <v>129354.65748</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>128667.21673</v>
+        <v>130312.15624</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>129533.40476</v>
+        <v>129644.05269</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>115095.73079</v>
+        <v>127509.93112</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>107311.13742</v>
+        <v>107102.27135</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>310472.6007</v>
+        <v>310472.6007000001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>135226.4146</v>
+        <v>135565.07214</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>343028.61677</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>346102.83794</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>346290.217</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>4821</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>4865</v>
+        <v>4866</v>
       </c>
       <c r="E59" s="35" t="n">
         <v>4926</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>4760</v>
+        <v>4766</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>4460</v>
+        <v>4473</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>4310</v>
+        <v>4339</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>4193</v>
+        <v>4260</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>4213</v>
+        <v>4227</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>4406</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>4358</v>
+        <v>4456</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>4193</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>4431</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>